--- a/ATPs/Pass_count_with_R.xlsx
+++ b/ATPs/Pass_count_with_R.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flynng\Desktop\Important-Paperwork\ATPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
   <si>
     <t>Task</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>R008</t>
+  </si>
+  <si>
+    <t>Grade:</t>
   </si>
 </sst>
 </file>
@@ -667,7 +670,7 @@
                   <c:v>0.88955823293172687</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74123376623376624</c:v>
+                  <c:v>0.75422077922077924</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.8</c:v>
@@ -686,11 +689,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="168236432"/>
-        <c:axId val="168236992"/>
+        <c:axId val="173392528"/>
+        <c:axId val="173393648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168236432"/>
+        <c:axId val="173392528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168236992"/>
+        <c:crossAx val="173393648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -741,7 +744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168236992"/>
+        <c:axId val="173393648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -793,7 +796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168236432"/>
+        <c:crossAx val="173392528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -960,31 +963,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,11 +1003,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="168238112"/>
-        <c:axId val="168238672"/>
+        <c:axId val="173395888"/>
+        <c:axId val="173396448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168238112"/>
+        <c:axId val="173395888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168238672"/>
+        <c:crossAx val="173396448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1055,7 +1058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168238672"/>
+        <c:axId val="173396448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1107,7 +1110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168238112"/>
+        <c:crossAx val="173395888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1332,11 +1335,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="168241472"/>
-        <c:axId val="168242032"/>
+        <c:axId val="173399248"/>
+        <c:axId val="173399808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168241472"/>
+        <c:axId val="173399248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1382,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168242032"/>
+        <c:crossAx val="173399808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1387,7 +1390,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168242032"/>
+        <c:axId val="173399808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1439,7 +1442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168241472"/>
+        <c:crossAx val="173399248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1641,11 +1644,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="168244832"/>
-        <c:axId val="168245392"/>
+        <c:axId val="173402608"/>
+        <c:axId val="173403168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168244832"/>
+        <c:axId val="173402608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +1691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168245392"/>
+        <c:crossAx val="173403168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1696,7 +1699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168245392"/>
+        <c:axId val="173403168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1748,7 +1751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168244832"/>
+        <c:crossAx val="173402608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1940,7 +1943,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61363636363636365</c:v>
+                  <c:v>0.70454545454545459</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1968,11 +1971,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="170170832"/>
-        <c:axId val="170171392"/>
+        <c:axId val="205506144"/>
+        <c:axId val="205506704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170170832"/>
+        <c:axId val="205506144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,7 +2018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170171392"/>
+        <c:crossAx val="205506704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2023,7 +2026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170171392"/>
+        <c:axId val="205506704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2075,7 +2078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170170832"/>
+        <c:crossAx val="205506144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2164,6 +2167,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2300,11 +2304,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="170174192"/>
-        <c:axId val="170174752"/>
+        <c:axId val="205509504"/>
+        <c:axId val="205510064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170174192"/>
+        <c:axId val="205509504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +2351,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170174752"/>
+        <c:crossAx val="205510064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2355,7 +2359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170174752"/>
+        <c:axId val="205510064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2407,7 +2411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170174192"/>
+        <c:crossAx val="205509504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5761,7 +5765,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6276,10 +6280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6320,7 +6324,7 @@
       </c>
       <c r="B4" s="7">
         <f>'ATP-11'!H2</f>
-        <v>0.74123376623376624</v>
+        <v>0.75422077922077924</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6336,15 +6340,27 @@
       <c r="A6" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7">
+        <f>'R0(0{0..9}|1{0..4})'!H2</f>
+        <v>0.72222222222222221</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="17">
-        <f>AVERAGE(B2:B5)</f>
-        <v>0.81492890256915107</v>
+        <f>AVERAGE(B2:B6)</f>
+        <v>0.79898496909716799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B7*0.6</f>
+        <v>0.47939098145830078</v>
       </c>
     </row>
   </sheetData>
@@ -6373,7 +6389,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6405,25 +6421,25 @@
         <v>103</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
       </c>
       <c r="D2" s="5">
         <f>B2+C2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16">
         <f t="shared" ref="E2" si="0">B2/D2</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="7" t="e">
+      <c r="H2" s="7">
         <f>AVERAGE(E2:E10)</f>
-        <v>#DIV/0!</v>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6431,18 +6447,18 @@
         <v>99</v>
       </c>
       <c r="B3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D10" si="1">B3+C3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16">
         <f t="shared" ref="E3:E10" si="2">B3/D3</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -6453,18 +6469,18 @@
         <v>100</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6472,18 +6488,18 @@
         <v>101</v>
       </c>
       <c r="B5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6491,18 +6507,18 @@
         <v>104</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="16" t="e">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6510,18 +6526,18 @@
         <v>105</v>
       </c>
       <c r="B7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="16" t="e">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6529,18 +6545,18 @@
         <v>106</v>
       </c>
       <c r="B8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="16" t="e">
+        <v>2</v>
+      </c>
+      <c r="E8" s="16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6548,18 +6564,18 @@
         <v>107</v>
       </c>
       <c r="B9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="16" t="e">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6567,18 +6583,18 @@
         <v>108</v>
       </c>
       <c r="B10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="16" t="e">
+        <v>2</v>
+      </c>
+      <c r="E10" s="16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -6596,19 +6612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E10">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E10">
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6620,7 +6624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E10">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6644,8 +6648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7618,7 +7622,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7839,8 +7843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7892,7 +7896,7 @@
       </c>
       <c r="H2" s="7">
         <f>AVERAGE(E2,E7,E9,E21,E34,E40,E46)</f>
-        <v>0.74123376623376624</v>
+        <v>0.75422077922077924</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -8017,11 +8021,11 @@
       </c>
       <c r="B9" s="5">
         <f>SUM(B10:B20)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5">
         <f>SUM(C10:C20)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
@@ -8029,7 +8033,7 @@
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>0.61363636363636365</v>
+        <v>0.70454545454545459</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -8227,10 +8231,10 @@
         <v>59</v>
       </c>
       <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>0</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -8238,7 +8242,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9066,7 +9070,7 @@
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
